--- a/GINX_TimeTable20A.xlsx
+++ b/GINX_TimeTable20A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/20A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342EEBB-98DA-DA40-B343-2B215D851AD4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8E960-DBB1-E248-8228-960604DA9E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57160" yWindow="1240" windowWidth="37480" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="460" windowWidth="23660" windowHeight="19160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -523,23 +523,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,76 +627,119 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FRA1005 - 33</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3242 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Français I</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>L. Boulerial</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1039 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction aux algorithmes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -706,18 +749,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>351366</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17993</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1512359"/>
+    <xdr:ext cx="2870200" cy="1571624"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3">
+        <xdr:cNvPr id="7" name="ZoneTexte 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -725,8 +768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071033" y="7303557"/>
-          <a:ext cx="2870200" cy="1512359"/>
+          <a:off x="3986743" y="8128001"/>
+          <a:ext cx="2870200" cy="1571624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,22 +806,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MAT1018 - 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1074 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -790,43 +841,97 @@
             <a:t>TH1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Mathématiques informatiques</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>A. Ndabigengesere</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Systèmes d'exploitation et ordinateurs</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>É. Fotsing Sighano</a:t>
+          </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -835,178 +940,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17993</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1545166"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="ZoneTexte 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3976160" y="7281334"/>
-          <a:ext cx="2870200" cy="1545166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1074 - 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Systèmes d'exploitation et ordinateurs</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>É. Fotsing Sighano</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>30692</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2888192</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1598083"/>
     <xdr:sp macro="" textlink="">
@@ -1022,7 +959,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9746192" y="7302500"/>
+          <a:off x="9746192" y="7704667"/>
           <a:ext cx="2870200" cy="1598083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1115,8 +1052,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
+            <a:t>TO-TO- 3248 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -1171,18 +1119,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13759</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5293</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2343150"/>
+    <xdr:ext cx="2870200" cy="2328332"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="ZoneTexte 10">
+        <xdr:cNvPr id="12" name="ZoneTexte 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="4972050"/>
-          <a:ext cx="2870200" cy="2343150"/>
+          <a:off x="1093259" y="6958543"/>
+          <a:ext cx="2870200" cy="2328332"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,30 +1176,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1039 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1035 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1263,139 +1211,6 @@
             <a:t>LA1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Introduction aux algorithmes</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B. Robert</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>347134</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>52918</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1090082"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="ZoneTexte 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066801" y="8879418"/>
-          <a:ext cx="2870200" cy="1090082"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1405,7 +1220,18 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1035 - 1</a:t>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1428,7 +1254,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>LA1</a:t>
+            <a:t> </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1451,7 +1277,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3248 </a:t>
+            <a:t>Logiciels d'applications</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1465,39 +1291,16 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Logiciels d'applications</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Nthoubanza</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>J. Momo Mbounou</a:t>
           </a:r>
           <a:endParaRPr lang="fr-CA">
             <a:effectLst/>
@@ -1511,8 +1314,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1058</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1597026"/>
     <xdr:sp macro="" textlink="">
@@ -1528,7 +1331,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9728200" y="4583641"/>
+          <a:off x="9759950" y="5795433"/>
           <a:ext cx="2870200" cy="1597026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1575,7 +1378,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1040 - 2</a:t>
+            <a:t>INF1040 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1612,17 +1415,19 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -1667,19 +1472,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>L.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Kanaki</a:t>
+            <a:t>J. Ngom</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -1690,11 +1483,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>37042</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>5292</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1526117"/>
+    <xdr:ext cx="2870200" cy="3108325"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="ZoneTexte 14">
@@ -1708,8 +1501,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6873875" y="7332133"/>
-          <a:ext cx="2870200" cy="1526117"/>
+          <a:off x="6863292" y="7702550"/>
+          <a:ext cx="2870200" cy="3108325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1776,17 +1569,40 @@
             <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
@@ -1832,177 +1648,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11641</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>51858</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1101725"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ZoneTexte 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3969808" y="8878358"/>
-          <a:ext cx="2870200" cy="1101725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1035 - 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Logiciels d'applications</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Nthoubanza</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>6349</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>5291</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1518709"/>
     <xdr:sp macro="" textlink="">
@@ -2018,7 +1666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3964516" y="4587874"/>
+          <a:off x="3975099" y="2688166"/>
           <a:ext cx="2870200" cy="1518709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2065,7 +1713,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1040 - 2</a:t>
+            <a:t>INF1040 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2102,17 +1750,28 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -2157,19 +1816,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>L.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Kanaki</a:t>
+            <a:t>J. Ngom</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -2184,10 +1831,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17896</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>4810</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17897</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184726</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2203,7 +1850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9762260" y="9160355"/>
+          <a:off x="12612064" y="3952393"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2273,7 +1920,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>LA1</a:t>
+            <a:t>LA2</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2287,6 +1934,18 @@
             </a:rPr>
           </a:br>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -2296,8 +1955,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
+          </a:br>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
@@ -2333,7 +1991,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>JM. Ngom</a:t>
+            <a:t>R. Engoulou</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2342,10 +2000,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2882514</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>193192</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>353096</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2691</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -2361,7 +2019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740514" y="5342465"/>
+          <a:off x="1072763" y="6828941"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2454,8 +2112,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -2501,11 +2170,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5003</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45409</xdr:rowOff>
+      <xdr:colOff>2873086</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>193575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:ext cx="2870200" cy="1658508"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="ZoneTexte 9">
@@ -2519,7 +2188,198 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9720503" y="6871659"/>
+          <a:off x="12588586" y="6405992"/>
+          <a:ext cx="2870200" cy="1658508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1085 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration Linux</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>357906</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16356</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077573" y="4397856"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2566,7 +2426,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1085 - 2</a:t>
+            <a:t>INF1085 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2589,67 +2449,272 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration Linux</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13663</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>194538</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1670053"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971830" y="6819705"/>
+          <a:ext cx="2870200" cy="1670053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1006 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Administration Linux</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Système de gestion de bases de données</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2669,17 +2734,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2866156</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>58689</xdr:rowOff>
+      <xdr:colOff>2876742</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33868</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="ZoneTexte 12">
+        <xdr:cNvPr id="17" name="ZoneTexte 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3945656" y="6884939"/>
+          <a:off x="3956242" y="4415368"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2734,7 +2799,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1085 - 1</a:t>
+            <a:t>INF1084 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2771,344 +2836,19 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Administration Linux</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B. Robert</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2871163</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>4037</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1670053"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="ZoneTexte 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3956436" y="5361128"/>
-          <a:ext cx="2870200" cy="1670053"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1006 - 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Système de gestion de bases de données</a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B. Robert</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2876742</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12702</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="ZoneTexte 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3959128" y="8793020"/>
-          <a:ext cx="2870200" cy="1651000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1084 - 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
@@ -3144,7 +2884,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>JM. Ngom</a:t>
+            <a:t>R. Engoulou</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3155,7 +2895,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
@@ -3172,7 +2912,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6849533" y="7641167"/>
+          <a:off x="6849533" y="2751667"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3219,7 +2959,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1023 - 2</a:t>
+            <a:t>INF1023 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3265,8 +3005,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -3321,10 +3063,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>351366</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>2116</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182031</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -3340,7 +3082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1078730" y="7887661"/>
+          <a:off x="9728201" y="3949698"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3387,7 +3129,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1023 - 2</a:t>
+            <a:t>INF1023 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3433,7 +3175,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO-TO-3248</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3489,8 +3254,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1925</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1926</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>5004</xdr:rowOff>
     </xdr:from>
@@ -3508,7 +3273,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1081425" y="5201421"/>
+          <a:off x="6838759" y="5201421"/>
           <a:ext cx="2870200" cy="2429161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3578,30 +3343,53 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO-TO-HC-TO-SED</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3985,7 +3773,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4017,7 +3805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>8</v>
       </c>
@@ -4030,7 +3818,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -4041,7 +3829,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -4063,7 +3851,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>9</v>
       </c>
@@ -4076,7 +3864,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -4087,7 +3875,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -4109,7 +3897,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>10</v>
       </c>
@@ -4122,7 +3910,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -4133,7 +3921,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -4155,7 +3943,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>11</v>
       </c>
@@ -4168,7 +3956,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -4179,7 +3967,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -4201,7 +3989,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>12</v>
       </c>
@@ -4214,7 +4002,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -4225,7 +4013,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -4247,7 +4035,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>13</v>
       </c>
@@ -4260,7 +4048,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -4271,7 +4059,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -4293,7 +4081,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>14</v>
       </c>
@@ -4306,7 +4094,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -4317,7 +4105,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -4339,7 +4127,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>15</v>
       </c>
@@ -4352,7 +4140,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -4363,7 +4151,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -4385,7 +4173,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>16</v>
       </c>
@@ -4398,7 +4186,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -4409,7 +4197,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -4431,7 +4219,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
         <v>17</v>
       </c>
@@ -4444,7 +4232,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -4455,7 +4243,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -4477,7 +4265,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>18</v>
       </c>
@@ -4490,7 +4278,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -4501,7 +4289,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -4523,7 +4311,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>19</v>
       </c>
@@ -4536,7 +4324,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -4547,7 +4335,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -4569,7 +4357,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
         <v>20</v>
       </c>
@@ -4582,7 +4370,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -4593,7 +4381,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -4617,6 +4405,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4624,12 +4418,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4644,7 +4432,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4676,7 +4464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>8</v>
       </c>
@@ -4689,7 +4477,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -4700,7 +4488,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -4711,7 +4499,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -4722,7 +4510,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>9</v>
       </c>
@@ -4735,7 +4523,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -4746,7 +4534,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -4757,7 +4545,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -4768,7 +4556,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>10</v>
       </c>
@@ -4781,7 +4569,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -4792,7 +4580,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -4803,7 +4591,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -4814,7 +4602,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>11</v>
       </c>
@@ -4827,7 +4615,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -4838,7 +4626,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -4849,7 +4637,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -4860,7 +4648,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>12</v>
       </c>
@@ -4873,7 +4661,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -4884,7 +4672,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -4895,7 +4683,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -4906,7 +4694,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>13</v>
       </c>
@@ -4919,7 +4707,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -4930,7 +4718,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -4941,7 +4729,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -4952,7 +4740,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>14</v>
       </c>
@@ -4965,7 +4753,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -4976,7 +4764,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -4987,7 +4775,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -4998,7 +4786,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>15</v>
       </c>
@@ -5011,7 +4799,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -5022,7 +4810,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -5033,7 +4821,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -5044,7 +4832,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>16</v>
       </c>
@@ -5057,7 +4845,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -5068,7 +4856,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -5079,7 +4867,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -5090,7 +4878,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
         <v>17</v>
       </c>
@@ -5103,7 +4891,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -5114,7 +4902,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -5125,7 +4913,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -5136,7 +4924,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>18</v>
       </c>
@@ -5149,7 +4937,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -5160,7 +4948,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -5171,7 +4959,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -5182,7 +4970,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>19</v>
       </c>
@@ -5195,7 +4983,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -5206,7 +4994,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -5217,7 +5005,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -5228,7 +5016,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
         <v>20</v>
       </c>
@@ -5241,7 +5029,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -5252,7 +5040,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -5263,7 +5051,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -5276,6 +5064,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5283,12 +5077,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable20A.xlsx
+++ b/GINX_TimeTable20A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/20A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8E960-DBB1-E248-8228-960604DA9E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B9652-30A0-6B45-A953-1142DBAFDAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="460" windowWidth="23660" windowHeight="19160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="460" windowWidth="23660" windowHeight="19160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -523,23 +523,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2000,10 +2000,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>353096</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>2691</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3846</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>193191</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -2019,7 +2019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1072763" y="6828941"/>
+          <a:off x="1083346" y="7321066"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2360,10 +2360,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>357906</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>16356</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8656</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190981</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2379,7 +2379,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1077573" y="4397856"/>
+          <a:off x="1088156" y="4842356"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3773,7 +3773,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4405,12 +4405,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4418,6 +4412,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4432,7 +4432,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5064,12 +5064,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5077,6 +5071,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
